--- a/wksp_grnd/res/salas.xlsx
+++ b/wksp_grnd/res/salas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicea\PycharmProjects\Protocol_Workshop\wksp_grnd\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A682FC1D-9C40-45CF-B422-F863F2E176CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727AB0B9-A522-4D06-8A9F-D4F1746CCC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="4" xr2:uid="{60CEC630-20DA-48BA-871C-1CBBDEAC003E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" activeTab="3" xr2:uid="{60CEC630-20DA-48BA-871C-1CBBDEAC003E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sala 3" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="35">
   <si>
     <t>-</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Union terminal 120mm²</t>
   </si>
   <si>
-    <t>4/0 AWG</t>
-  </si>
-  <si>
     <t>Cu</t>
   </si>
   <si>
@@ -129,22 +126,25 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Paño J07</t>
-  </si>
-  <si>
-    <t>Paño J18</t>
-  </si>
-  <si>
-    <t>Futuro</t>
-  </si>
-  <si>
-    <t>Cerco Acmafor</t>
-  </si>
-  <si>
-    <t>Caminos Interiores</t>
-  </si>
-  <si>
     <t>Sala SSGG</t>
+  </si>
+  <si>
+    <t>2/0 AWG</t>
+  </si>
+  <si>
+    <t>Sala 3</t>
+  </si>
+  <si>
+    <t>Sala 4</t>
+  </si>
+  <si>
+    <t>Sala 5</t>
+  </si>
+  <si>
+    <t>Sala Servicios Generales</t>
+  </si>
+  <si>
+    <t>Sala 6</t>
   </si>
 </sst>
 </file>
@@ -239,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -264,6 +264,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,7 +585,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
@@ -599,12 +602,12 @@
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5">
-        <v>60</v>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -617,9 +620,11 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
@@ -630,7 +635,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -643,7 +648,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -651,12 +656,12 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>84</v>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -669,10 +674,10 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -750,32 +755,39 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5">
+        <f>1+2+1</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="5">
+        <f>7+1+3.5</f>
+        <v>11.5</v>
+      </c>
       <c r="E15" s="5">
-        <v>610</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -815,10 +827,10 @@
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -826,10 +838,10 @@
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1">
       <c r="A22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -849,7 +861,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1"/>
@@ -866,12 +878,12 @@
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5">
-        <v>36</v>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -884,9 +896,11 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
@@ -897,7 +911,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -910,7 +924,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -918,12 +932,12 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>75</v>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -936,10 +950,10 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1017,32 +1031,39 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5">
+        <f>1+2+1</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="5">
+        <f>7+1+3.5</f>
+        <v>11.5</v>
+      </c>
       <c r="E15" s="5">
-        <v>461</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1082,10 +1103,10 @@
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1093,10 +1114,10 @@
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1">
       <c r="A22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1116,7 +1137,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1"/>
@@ -1133,12 +1154,12 @@
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5">
-        <v>192</v>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -1151,9 +1172,11 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
@@ -1164,7 +1187,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1177,7 +1200,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -1185,12 +1208,12 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>11</v>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -1203,10 +1226,10 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1284,32 +1307,39 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5">
+        <f>1+2+1</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="5">
+        <f>7+1+3.5</f>
+        <v>11.5</v>
+      </c>
       <c r="E15" s="5">
-        <v>2210</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1349,10 +1379,10 @@
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1360,10 +1390,10 @@
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1">
       <c r="A22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1382,274 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6926E40-82DC-44AB-82FD-DEFE0772B15C}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5">
-        <v>98</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>62</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1">
-      <c r="A21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1">
-      <c r="A22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543567BB-8604-46D8-962F-A4EA9282AF3D}">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
@@ -1667,12 +1430,12 @@
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5">
-        <v>281</v>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -1685,20 +1448,22 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>130</v>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1711,7 +1476,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -1724,7 +1489,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -1737,10 +1502,10 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1818,32 +1583,39 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5">
+        <f>1+2+1</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="5">
+        <f>7+1+3.5</f>
+        <v>11.5</v>
+      </c>
       <c r="E15" s="5">
-        <v>4643</v>
+        <f>2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1883,10 +1655,10 @@
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1">
       <c r="A21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1894,10 +1666,288 @@
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1">
       <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543567BB-8604-46D8-962F-A4EA9282AF3D}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <f>3+5+4+7+3+2+1+5</f>
+        <v>30</v>
+      </c>
+      <c r="D15" s="5">
+        <f>4+6+7+1+3+5</f>
+        <v>26</v>
+      </c>
+      <c r="E15" s="5">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1">
+      <c r="A21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1">
+      <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B22" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
